--- a/codes/test_shell_output/testPREP_NEW_2.xlsx
+++ b/codes/test_shell_output/testPREP_NEW_2.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:CW41"/>
+  <dimension ref="B5:CW49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,3022 +348,3626 @@
   <sheetData>
     <row r="5" spans="2:101">
       <c r="B5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="C5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="D5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="E5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="F5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="G5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="H5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="I5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="J5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="K5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="L5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="M5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="N5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="O5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="P5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="Q5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="R5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="S5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="T5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="U5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="V5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="W5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="X5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="Y5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="Z5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AA5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AB5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AC5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AD5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AE5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AF5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AG5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AH5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AI5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AJ5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AK5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AL5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AM5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AN5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AO5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AP5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AQ5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AR5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AS5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AT5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AU5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AV5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AW5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AX5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AY5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AZ5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BA5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BB5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BC5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BD5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BE5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BF5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BG5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BH5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BI5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BJ5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BK5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BL5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BM5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BN5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BO5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BP5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BQ5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BR5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BS5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BT5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BU5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BV5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BW5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BX5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BY5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BZ5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CA5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CB5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CC5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CD5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CE5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CF5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CG5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CH5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CI5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CJ5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CK5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CL5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CM5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CN5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CO5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CP5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CQ5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CR5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CS5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CT5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CU5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CV5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CW5">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="C9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="D9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="E9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="F9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="G9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="H9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="I9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="J9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="K9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="L9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="M9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="N9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="O9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="P9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="Q9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="R9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="S9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="T9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="U9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="V9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="W9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="X9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="Y9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="Z9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AA9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AB9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AC9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AD9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AE9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AF9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AG9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AH9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AI9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AJ9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AK9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AL9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AM9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AN9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AO9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AP9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AQ9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AR9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AS9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AT9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AU9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AV9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AW9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AX9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AY9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AZ9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BA9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BB9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BC9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BD9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BE9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BF9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BG9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BH9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BI9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BJ9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BK9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BL9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BM9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BN9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BO9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BP9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BQ9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BR9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BS9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BT9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BU9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BV9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BW9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BX9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BY9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BZ9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CA9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CB9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CC9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CD9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CE9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CF9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CG9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CH9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CI9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CJ9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CK9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CL9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CM9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CN9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CO9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CP9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CQ9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CR9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CS9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CT9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CU9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CV9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CW9">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="C13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="D13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="E13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="F13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="G13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="H13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="I13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="J13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="K13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="L13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="M13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="N13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="O13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="P13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="Q13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="R13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="S13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="T13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="U13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="V13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="W13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="X13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="Y13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="Z13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AA13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AB13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AC13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AD13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AE13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AF13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AG13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AH13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AI13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AJ13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AK13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AL13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AM13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AN13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AO13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AP13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AQ13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AR13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AS13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AT13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AU13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AV13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AW13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AX13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AY13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AZ13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BA13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BB13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BC13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BD13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BE13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BF13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BG13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BH13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BI13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BJ13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BK13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BL13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BM13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BN13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BO13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BP13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BQ13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BR13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BS13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BT13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BU13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BV13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BW13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BX13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BY13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BZ13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CA13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CB13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CC13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CD13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CE13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CF13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CG13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CH13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CI13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CJ13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CK13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CL13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CM13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CN13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CO13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CP13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CQ13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CR13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CS13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CT13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CU13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CV13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CW13">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="C17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="D17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="E17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="F17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="G17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="H17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="I17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="J17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="K17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="L17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="M17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="N17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="O17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="P17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="Q17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="R17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="S17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="T17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="U17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="V17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="W17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="X17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="Y17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="Z17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AA17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AB17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AC17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AD17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AE17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AF17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AG17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AH17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AI17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AJ17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AK17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AL17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AM17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AN17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AO17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AP17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AQ17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AR17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AS17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AT17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AU17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AV17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AW17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AX17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AY17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AZ17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BA17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BB17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BC17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BD17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BE17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BF17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BG17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BH17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BI17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BJ17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BK17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BL17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BM17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BN17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BO17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BP17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BQ17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BR17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BS17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BT17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BU17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BV17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BW17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BX17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BY17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BZ17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CA17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CB17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CC17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CD17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CE17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CF17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CG17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CH17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CI17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CJ17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CK17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CL17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CM17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CN17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CO17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CP17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CQ17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CR17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CS17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CT17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CU17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CV17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CW17">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="C21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="D21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="E21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="F21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="G21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="H21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="I21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="J21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="K21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="L21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="M21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="N21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="O21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="P21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="Q21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="R21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="S21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="T21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="U21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="V21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="W21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="X21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="Y21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="Z21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AA21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AB21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AC21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AD21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AE21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AF21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AG21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AH21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AI21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AJ21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AK21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AL21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AM21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AN21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AO21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AP21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AQ21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AR21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AS21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AT21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AU21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AV21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AW21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AX21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AY21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AZ21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BA21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BB21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BC21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BD21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BE21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BF21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BG21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BH21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BI21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BJ21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BK21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BL21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BM21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BN21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BO21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BP21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BQ21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BR21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BS21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BT21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BU21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BV21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BW21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BX21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BY21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BZ21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CA21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CB21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CC21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CD21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CE21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CF21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CG21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CH21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CI21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CJ21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CK21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CL21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CM21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CN21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CO21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CP21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CQ21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CR21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CS21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CT21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CU21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CV21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CW21">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="C25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="D25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="E25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="F25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="G25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="H25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="I25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="J25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="K25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="L25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="M25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="N25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="O25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="P25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="Q25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="R25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="S25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="T25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="U25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="V25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="W25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="X25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="Y25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="Z25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AA25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AB25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AC25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AD25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AE25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AF25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AG25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AH25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AI25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AJ25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AK25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AL25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AM25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AN25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AO25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AP25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AQ25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AR25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AS25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AT25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AU25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AV25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AW25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AX25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AY25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AZ25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BA25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BB25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BC25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BD25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BE25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BF25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BG25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BH25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BI25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BJ25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BK25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BL25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BM25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BN25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BO25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BP25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BQ25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BR25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BS25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BT25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BU25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BV25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BW25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BX25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BY25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BZ25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CA25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CB25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CC25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CD25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CE25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CF25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CG25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CH25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CI25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CJ25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CK25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CL25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CM25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CN25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CO25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CP25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CQ25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CR25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CS25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CT25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CU25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CV25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CW25">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="C29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="D29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="E29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="F29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="G29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="H29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="I29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="J29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="K29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="L29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="M29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="N29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="O29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="P29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="Q29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="R29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="S29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="T29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="U29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="V29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="W29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="X29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="Y29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="Z29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AA29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AB29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AC29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AD29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AE29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AF29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AG29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AH29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AI29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AJ29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AK29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AL29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AM29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AN29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AO29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AP29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AQ29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AR29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AS29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AT29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AU29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AV29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AW29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AX29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AY29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AZ29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BA29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BB29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BC29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BD29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BE29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BF29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BG29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BH29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BI29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BJ29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BK29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BL29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BM29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BN29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BO29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BP29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BQ29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BR29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BS29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BT29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BU29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BV29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BW29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BX29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BY29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BZ29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CA29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CB29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CC29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CD29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CE29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CF29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CG29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CH29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CI29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CJ29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CK29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CL29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CM29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CN29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CO29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CP29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CQ29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CR29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CS29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CT29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CU29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CV29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CW29">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="C33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="D33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="E33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="F33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="G33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="H33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="I33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="J33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="K33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="L33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="M33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="N33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="O33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="P33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="Q33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="R33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="S33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="T33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="U33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="V33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="W33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="X33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="Y33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="Z33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AA33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AB33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AC33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AD33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AE33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AF33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AG33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AH33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AI33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AJ33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AK33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AL33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AM33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AN33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AO33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AP33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AQ33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AR33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AS33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AT33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AU33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AV33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AW33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AX33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AY33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AZ33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BA33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BB33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BC33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BD33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BE33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BF33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BG33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BH33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BI33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BJ33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BK33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BL33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BM33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BN33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BO33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BP33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BQ33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BR33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BS33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BT33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BU33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BV33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BW33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BX33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BY33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BZ33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CA33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CB33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CC33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CD33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CE33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CF33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CG33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CH33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CI33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CJ33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CK33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CL33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CM33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CN33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CO33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CP33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CQ33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CR33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CS33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CT33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CU33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CV33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CW33">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="C37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="D37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="E37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="F37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="G37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="H37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="I37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="J37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="K37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="L37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="M37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="N37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="O37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="P37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="Q37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="R37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="S37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="T37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="U37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="V37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="W37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="X37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="Y37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="Z37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AA37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AB37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AC37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AD37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AE37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AF37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AG37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AH37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AI37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AJ37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AK37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AL37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AM37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AN37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AO37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AP37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AQ37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AR37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AS37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AT37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AU37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AV37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AW37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AX37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AY37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AZ37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BA37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BB37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BC37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BD37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BE37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BF37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BG37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BH37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BI37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BJ37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BK37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BL37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BM37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BN37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BO37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BP37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BQ37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BR37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BS37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BT37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BU37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BV37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BW37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BX37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BY37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BZ37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CA37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CB37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CC37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CD37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CE37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CF37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CG37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CH37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CI37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CJ37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CK37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CL37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CM37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CN37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CO37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CP37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CQ37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CR37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CS37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CT37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CU37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CV37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CW37">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="C41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="D41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="E41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="F41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="G41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="H41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="I41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="J41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="K41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="L41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="M41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="N41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="O41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="P41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="Q41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="R41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="S41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="T41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="U41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="V41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="W41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="X41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="Y41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="Z41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AA41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AB41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AC41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AD41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AE41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AF41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AG41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AH41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AI41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AJ41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AK41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AL41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AM41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AN41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AO41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AP41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AQ41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AR41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AS41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AT41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AU41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AV41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AW41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AX41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AY41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AZ41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BA41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BB41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BC41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BD41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BE41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BF41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BG41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BH41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BI41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BJ41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BK41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BL41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BM41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BN41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BO41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BP41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BQ41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BR41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BS41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BT41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BU41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BV41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BW41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BX41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BY41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BZ41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CA41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CB41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CC41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CD41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CE41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CF41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CG41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CH41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CI41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CJ41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CK41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CL41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CM41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CN41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CO41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CP41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CQ41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CR41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CS41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CT41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CU41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CV41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CW41">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
+      </c>
+    </row>
+    <row r="45" spans="2:101">
+      <c r="B45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="C45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="D45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="E45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="F45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="G45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="H45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="I45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="J45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="K45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="L45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="M45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="N45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="O45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="P45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="Q45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="R45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="S45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="T45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="U45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="V45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="W45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="X45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="Y45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="Z45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AA45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AB45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AC45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AD45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AE45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AF45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AG45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AH45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AI45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AJ45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AK45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AL45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AM45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AN45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AO45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AP45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AQ45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AR45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AS45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AT45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AU45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AV45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AW45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AX45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AY45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AZ45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BA45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BB45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BC45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BD45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BE45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BF45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BG45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BH45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BI45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BJ45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BK45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BL45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BM45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BN45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BO45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BP45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BQ45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BR45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BS45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BT45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BU45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BV45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BW45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BX45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BY45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BZ45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CA45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CB45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CC45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CD45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CE45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CF45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CG45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CH45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CI45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CJ45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CK45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CL45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CM45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CN45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CO45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CP45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CQ45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CR45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CS45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CT45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CU45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CV45">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CW45">
+        <v>12.01716738197425</v>
+      </c>
+    </row>
+    <row r="49" spans="2:101">
+      <c r="B49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="C49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="D49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="E49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="F49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="G49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="H49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="I49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="J49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="K49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="L49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="M49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="N49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="O49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="P49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="Q49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="R49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="S49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="T49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="U49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="V49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="W49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="X49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="Y49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="Z49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AA49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AB49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AC49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AD49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AE49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AF49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AG49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AH49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AI49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AJ49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AK49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AL49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AM49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AN49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AO49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AP49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AQ49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AR49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AS49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AT49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AU49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AV49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AW49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AX49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AY49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AZ49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BA49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BB49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BC49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BD49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BE49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BF49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BG49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BH49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BI49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BJ49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BK49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BL49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BM49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BN49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BO49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BP49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BQ49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BR49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BS49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BT49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BU49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BV49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BW49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BX49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BY49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BZ49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CA49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CB49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CC49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CD49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CE49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CF49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CG49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CH49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CI49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CJ49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CK49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CL49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CM49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CN49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CO49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CP49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CQ49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CR49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CS49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CT49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CU49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CV49">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CW49">
+        <v>0.8583690987124464</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPREP_NEW_2.xlsx
+++ b/codes/test_shell_output/testPREP_NEW_2.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:CW49"/>
+  <dimension ref="B5:CW45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,3626 +348,3324 @@
   <sheetData>
     <row r="5" spans="2:101">
       <c r="B5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="C5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="D5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="E5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="F5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="G5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="H5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="I5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="J5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="K5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="L5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="M5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="N5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="O5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="P5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Q5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="R5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="S5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="T5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="U5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="V5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="W5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="X5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Y5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Z5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AA5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AB5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AC5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AD5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AE5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AF5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AG5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AH5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AI5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AJ5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AK5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AL5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AM5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AN5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AO5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AP5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AQ5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AR5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AS5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AT5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AU5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AV5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AW5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AX5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AY5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AZ5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BA5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BB5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BC5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BD5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BE5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BF5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BG5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BH5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BI5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BJ5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BK5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BL5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BM5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BN5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BO5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BP5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BQ5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BR5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BS5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BT5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BU5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BV5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BW5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BX5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BY5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BZ5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CA5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CB5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CC5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CD5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CE5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CF5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CG5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CH5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CI5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CJ5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CK5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CL5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CM5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CN5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CO5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CP5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CQ5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CR5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CS5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CT5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CU5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CV5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CW5">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="C9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="D9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="E9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="F9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="G9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="H9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="I9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="J9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="K9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="L9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="M9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="N9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="O9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="P9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Q9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="R9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="S9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="T9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="U9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="V9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="W9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="X9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Y9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Z9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AA9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AB9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AC9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AD9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AE9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AF9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AG9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AH9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AI9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AJ9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AK9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AL9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AM9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AN9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AO9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AP9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AQ9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AR9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AS9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AT9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AU9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AV9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AW9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AX9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AY9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AZ9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BA9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BB9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BC9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BD9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BE9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BF9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BG9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BH9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BI9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BJ9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BK9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BL9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BM9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BN9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BO9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BP9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BQ9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BR9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BS9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BT9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BU9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BV9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BW9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BX9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BY9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BZ9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CA9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CB9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CC9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CD9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CE9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CF9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CG9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CH9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CI9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CJ9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CK9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CL9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CM9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CN9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CO9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CP9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CQ9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CR9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CS9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CT9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CU9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CV9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CW9">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="C13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="D13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="E13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="F13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="G13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="H13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="I13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="J13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="K13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="L13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="M13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="N13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="O13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="P13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="Q13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="R13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="S13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="T13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="U13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="V13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="W13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="X13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="Y13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="Z13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AA13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AB13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AC13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AD13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AE13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AF13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AG13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AH13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AI13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AJ13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AK13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AL13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AM13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AN13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AO13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AP13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AQ13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AR13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AS13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AT13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AU13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AV13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AW13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AX13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AY13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AZ13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BA13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BB13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BC13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BD13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BE13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BF13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BG13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BH13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BI13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BJ13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BK13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BL13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BM13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BN13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BO13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BP13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BQ13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BR13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BS13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BT13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BU13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BV13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BW13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BX13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BY13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BZ13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CA13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CB13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CC13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CD13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CE13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CF13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CG13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CH13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CI13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CJ13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CK13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CL13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CM13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CN13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CO13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CP13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CQ13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CR13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CS13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CT13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CU13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CV13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CW13">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="C17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="D17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="E17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="F17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="G17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="H17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="I17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="J17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="K17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="L17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="M17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="N17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="O17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="P17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="Q17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="R17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="S17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="T17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="U17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="V17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="W17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="X17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="Y17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="Z17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AA17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AB17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AC17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AD17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AE17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AF17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AG17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AH17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AI17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AJ17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AK17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AL17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AM17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AN17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AO17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AP17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AQ17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AR17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AS17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AT17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AU17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AV17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AW17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AX17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AY17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AZ17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BA17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BB17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BC17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BD17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BE17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BF17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BG17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BH17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BI17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BJ17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BK17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BL17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BM17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BN17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BO17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BP17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BQ17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BR17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BS17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BT17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BU17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BV17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BW17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BX17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BY17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BZ17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CA17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CB17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CC17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CD17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CE17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CF17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CG17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CH17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CI17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CJ17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CK17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CL17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CM17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CN17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CO17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CP17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CQ17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CR17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CS17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CT17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CU17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CV17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CW17">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="C21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="D21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="E21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="F21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="G21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="H21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="I21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="J21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="K21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="L21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="M21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="N21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="O21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="P21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="Q21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="R21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="S21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="T21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="U21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="V21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="W21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="X21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="Y21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="Z21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AA21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AB21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AC21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AD21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AE21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AF21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AG21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AH21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AI21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AJ21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AK21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AL21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AM21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AN21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AO21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AP21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AQ21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AR21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AS21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AT21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AU21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AV21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AW21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AX21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AY21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AZ21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BA21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BB21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BC21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BD21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BE21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BF21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BG21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BH21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BI21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BJ21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BK21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BL21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BM21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BN21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BO21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BP21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BQ21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BR21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BS21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BT21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BU21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BV21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BW21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BX21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BY21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BZ21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CA21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CB21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CC21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CD21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CE21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CF21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CG21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CH21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CI21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CJ21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CK21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CL21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CM21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CN21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CO21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CP21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CQ21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CR21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CS21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CT21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CU21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CV21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CW21">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="C25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="D25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="E25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="F25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="G25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="H25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="I25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="J25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="K25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="L25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="M25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="N25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="O25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="P25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="Q25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="R25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="S25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="T25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="U25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="V25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="W25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="X25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="Y25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="Z25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AA25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AB25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AC25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AD25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AE25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AF25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AG25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AH25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AI25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AJ25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AK25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AL25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AM25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AN25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AO25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AP25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AQ25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AR25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AS25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AT25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AU25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AV25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AW25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AX25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AY25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AZ25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BA25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BB25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BC25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BD25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BE25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BF25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BG25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BH25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BI25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BJ25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BK25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BL25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BM25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BN25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BO25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BP25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BQ25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BR25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BS25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BT25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BU25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BV25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BW25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BX25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BY25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BZ25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CA25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CB25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CC25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CD25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CE25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CF25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CG25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CH25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CI25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CJ25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CK25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CL25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CM25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CN25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CO25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CP25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CQ25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CR25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CS25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CT25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CU25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CV25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CW25">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="C29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="D29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="E29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="F29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="G29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="H29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="I29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="J29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="K29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="L29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="M29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="N29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="O29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="P29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Q29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="R29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="S29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="T29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="U29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="V29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="W29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="X29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Y29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Z29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AA29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AB29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AC29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AD29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AE29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AF29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AG29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AH29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AI29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AJ29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AK29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AL29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AM29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AN29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AO29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AP29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AQ29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AR29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AS29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AT29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AU29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AV29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AW29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AX29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AY29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AZ29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BA29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BB29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BC29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BD29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BE29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BF29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BG29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BH29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BI29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BJ29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BK29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BL29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BM29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BN29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BO29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BP29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BQ29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BR29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BS29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BT29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BU29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BV29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BW29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BX29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BY29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BZ29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CA29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CB29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CC29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CD29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CE29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CF29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CG29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CH29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CI29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CJ29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CK29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CL29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CM29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CN29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CO29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CP29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CQ29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CR29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CS29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CT29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CU29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CV29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CW29">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="C33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="D33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="E33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="F33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="G33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="H33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="I33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="J33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="K33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="L33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="M33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="N33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="O33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="P33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="Q33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="R33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="S33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="T33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="U33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="V33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="W33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="X33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="Y33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="Z33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AA33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AB33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AC33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AD33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AE33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AF33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AG33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AH33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AI33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AJ33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AK33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AL33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AM33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AN33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AO33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AP33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AQ33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AR33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AS33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AT33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AU33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AV33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AW33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AX33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AY33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AZ33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BA33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BB33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BC33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BD33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BE33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BF33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BG33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BH33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BI33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BJ33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BK33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BL33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BM33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BN33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BO33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BP33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BQ33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BR33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BS33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BT33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BU33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BV33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BW33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BX33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BY33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BZ33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CA33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CB33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CC33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CD33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CE33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CF33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CG33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CH33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CI33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CJ33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CK33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CL33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CM33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CN33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CO33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CP33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CQ33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CR33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CS33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CT33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CU33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CV33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CW33">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="C37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="D37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="E37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="F37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="G37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="H37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="I37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="J37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="K37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="L37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="M37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="N37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="O37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="P37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Q37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="R37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="S37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="T37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="U37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="V37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="W37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="X37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Y37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Z37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AA37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AB37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AC37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AD37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AE37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AF37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AG37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AH37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AI37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AJ37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AK37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AL37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AM37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AN37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AO37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AP37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AQ37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AR37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AS37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AT37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AU37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AV37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AW37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AX37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AY37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AZ37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BA37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BB37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BC37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BD37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BE37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BF37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BG37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BH37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BI37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BJ37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BK37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BL37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BM37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BN37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BO37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BP37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BQ37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BR37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BS37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BT37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BU37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BV37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BW37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BX37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BY37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BZ37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CA37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CB37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CC37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CD37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CE37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CF37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CG37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CH37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CI37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CJ37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CK37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CL37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CM37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CN37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CO37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CP37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CQ37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CR37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CS37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CT37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CU37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CV37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CW37">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="C41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="D41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="E41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="F41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="G41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="H41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="I41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="J41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="K41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="L41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="M41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="N41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="O41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="P41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="Q41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="R41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="S41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="T41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="U41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="V41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="W41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="X41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="Y41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="Z41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AA41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AB41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AC41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AD41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AE41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AF41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AG41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AH41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AI41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AJ41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AK41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AL41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AM41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AN41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AO41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AP41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AQ41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AR41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AS41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AT41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AU41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AV41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AW41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AX41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AY41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AZ41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BA41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BB41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BC41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BD41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BE41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BF41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BG41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BH41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BI41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BJ41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BK41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BL41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BM41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BN41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BO41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BP41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BQ41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BR41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BS41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BT41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BU41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BV41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BW41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BX41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BY41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BZ41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CA41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CB41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CC41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CD41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CE41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CF41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CG41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CH41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CI41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CJ41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CK41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CL41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CM41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CN41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CO41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CP41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CQ41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CR41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CS41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CT41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CU41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CV41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CW41">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
     </row>
     <row r="45" spans="2:101">
       <c r="B45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="C45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="D45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="E45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="F45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="G45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="H45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="I45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="J45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="K45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="L45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="M45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="N45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="O45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="P45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="Q45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="R45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="S45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="T45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="U45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="V45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="W45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="X45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="Y45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="Z45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AA45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AB45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AC45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AD45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AE45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AF45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AG45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AH45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AI45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AJ45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AK45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AL45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AM45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AN45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AO45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AP45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AQ45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AR45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AS45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AT45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AU45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AV45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AW45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AX45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AY45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AZ45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BA45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BB45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BC45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BD45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BE45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BF45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BG45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BH45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BI45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BJ45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BK45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BL45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BM45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BN45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BO45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BP45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BQ45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BR45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BS45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BT45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BU45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BV45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BW45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BX45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BY45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BZ45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CA45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CB45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CC45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CD45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CE45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CF45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CG45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CH45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CI45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CJ45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CK45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CL45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CM45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CN45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CO45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CP45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CQ45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CR45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CS45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CT45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CU45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CV45">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CW45">
-        <v>12.01716738197425</v>
-      </c>
-    </row>
-    <row r="49" spans="2:101">
-      <c r="B49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="C49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="D49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="E49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="F49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="G49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="H49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="I49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="J49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="K49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="L49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="M49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="N49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="O49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="P49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="Q49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="R49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="S49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="T49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="U49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="V49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="W49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="X49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="Y49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="Z49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AA49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AB49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AC49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AD49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AE49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AF49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AG49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AH49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AI49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AJ49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AK49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AL49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AM49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AN49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AO49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AP49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AQ49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AR49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AS49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AT49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AU49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AV49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AW49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AX49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AY49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AZ49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BA49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BB49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BC49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BD49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BE49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BF49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BG49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BH49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BI49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BJ49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BK49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BL49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BM49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BN49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BO49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BP49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BQ49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BR49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BS49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BT49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BU49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BV49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BW49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BX49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BY49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BZ49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CA49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CB49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CC49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CD49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CE49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CF49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CG49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CH49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CI49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CJ49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CK49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CL49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CM49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CN49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CO49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CP49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CQ49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CR49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CS49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CT49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CU49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CV49">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CW49">
-        <v>0.8583690987124464</v>
+        <v>18.70229007633588</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPREP_NEW_2.xlsx
+++ b/codes/test_shell_output/testPREP_NEW_2.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:CW45"/>
+  <dimension ref="B5:CW41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,3324 +348,3022 @@
   <sheetData>
     <row r="5" spans="2:101">
       <c r="B5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="C5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="D5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="E5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="F5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="G5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="H5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="I5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="J5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="K5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="L5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="M5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="N5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="O5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="P5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="Q5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="R5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="S5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="T5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="U5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="V5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="W5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="X5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="Y5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="Z5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AA5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AB5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AC5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AD5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AE5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AF5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AG5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AH5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AI5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AJ5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AK5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AL5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AM5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AN5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AO5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AP5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AQ5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AR5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AS5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AT5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AU5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AV5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AW5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AX5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AY5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AZ5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BA5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BB5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BC5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BD5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BE5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BF5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BG5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BH5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BI5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BJ5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BK5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BL5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BM5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BN5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BO5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BP5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BQ5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BR5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BS5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BT5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BU5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BV5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BW5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BX5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BY5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BZ5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CA5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CB5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CC5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CD5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CE5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CF5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CG5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CH5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CI5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CJ5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CK5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CL5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CM5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CN5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CO5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CP5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CQ5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CR5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CS5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CT5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CU5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CV5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CW5">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="D9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="E9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="F9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="G9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="H9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="I9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="J9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="K9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="M9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="N9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="O9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="P9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="Q9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="R9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="S9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="T9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="U9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="V9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="W9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="X9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="Y9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="Z9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AA9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AB9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AC9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AD9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AE9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AF9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AG9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AH9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AI9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AJ9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AK9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AL9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AM9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AN9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AO9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AP9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AQ9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AR9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AS9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AT9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AU9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AV9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AW9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AX9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AY9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AZ9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BA9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BB9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BC9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BD9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BE9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BF9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BG9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BH9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BI9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BJ9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BK9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BL9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BM9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BN9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BO9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BP9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BQ9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BR9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BS9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BT9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BU9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BV9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BW9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BX9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BY9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BZ9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CA9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CB9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CC9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CD9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CE9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CF9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CG9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CH9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CI9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CJ9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CK9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CL9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CM9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CN9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CO9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CP9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CQ9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CR9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CS9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CT9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CU9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CV9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CW9">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="C13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="D13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="E13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="F13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="G13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="H13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="I13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="J13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="K13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="L13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="M13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="N13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="O13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="P13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="Q13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="R13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="S13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="T13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="U13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="V13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="W13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="X13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="Y13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="Z13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AA13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AB13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AC13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AD13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AE13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AF13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AG13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AH13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AI13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AJ13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AK13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AL13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AM13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AN13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AO13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AP13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AQ13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AR13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AS13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AT13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AU13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AV13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AW13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AX13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AY13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AZ13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BA13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BB13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BC13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BD13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BE13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BF13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BG13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BH13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BI13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BJ13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BK13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BL13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BM13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BN13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BO13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BP13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BQ13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BR13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BS13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BT13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BU13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BV13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BW13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BX13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BY13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BZ13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CA13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CB13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CC13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CD13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CE13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CF13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CG13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CH13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CI13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CJ13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CK13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CL13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CM13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CN13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CO13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CP13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CQ13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CR13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CS13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CT13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CU13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CV13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CW13">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="C17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="D17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="E17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="F17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="G17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="H17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="I17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="J17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="K17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="L17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="M17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="N17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="O17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="P17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="Q17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="R17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="S17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="T17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="U17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="V17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="W17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="X17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="Y17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="Z17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AA17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AB17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AC17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AD17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AE17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AF17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AG17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AH17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AI17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AJ17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AK17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AL17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AM17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AN17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AO17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AP17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AQ17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AR17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AS17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AT17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AU17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AV17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AW17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AX17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AY17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AZ17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BA17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BB17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BC17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BD17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BE17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BF17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BG17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BH17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BI17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BJ17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BK17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BL17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BM17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BN17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BO17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BP17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BQ17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BR17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BS17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BT17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BU17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BV17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BW17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BX17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BY17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BZ17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CA17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CB17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CC17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CD17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CE17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CF17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CG17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CH17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CI17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CJ17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CK17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CL17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CM17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CN17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CO17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CP17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CQ17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CR17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CS17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CT17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CU17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CV17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CW17">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="C21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="D21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="E21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="F21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="G21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="H21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="I21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="J21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="K21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="L21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="M21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="N21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="O21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="P21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="Q21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="R21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="S21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="T21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="U21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="V21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="W21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="X21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="Y21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="Z21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AA21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AB21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AC21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AD21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AE21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AF21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AG21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AH21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AI21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AJ21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AK21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AL21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AM21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AN21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AO21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AP21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AQ21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AR21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AS21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AT21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AU21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AV21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AW21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AX21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AY21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AZ21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BA21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BB21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BC21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BD21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BE21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BF21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BG21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BH21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BI21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BJ21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BK21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BL21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BM21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BN21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BO21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BP21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BQ21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BR21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BS21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BT21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BU21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BV21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BW21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BX21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BY21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BZ21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CA21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CB21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CC21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CD21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CE21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CF21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CG21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CH21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CI21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CJ21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CK21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CL21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CM21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CN21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CO21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CP21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CQ21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CR21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CS21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CT21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CU21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CV21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CW21">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="C25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="D25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="E25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="F25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="G25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="H25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="I25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="J25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="K25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="L25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="M25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="N25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="O25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="P25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="Q25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="R25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="S25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="T25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="U25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="V25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="W25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="X25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="Y25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="Z25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AA25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AB25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AC25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AD25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AE25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AF25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AG25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AH25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AI25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AJ25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AK25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AL25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AM25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AN25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AO25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AP25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AQ25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AR25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AS25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AT25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AU25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AV25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AW25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AX25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AY25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AZ25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BA25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BB25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BC25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BD25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BE25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BF25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BG25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BH25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BI25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BJ25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BK25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BL25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BM25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BN25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BO25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BP25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BQ25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BR25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BS25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BT25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BU25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BV25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BW25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BX25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BY25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BZ25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CA25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CB25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CC25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CD25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CE25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CF25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CG25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CH25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CI25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CJ25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CK25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CL25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CM25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CN25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CO25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CP25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CQ25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CR25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CS25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CT25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CU25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CV25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CW25">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="C29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="D29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="E29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="F29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="G29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="H29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="I29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="J29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="K29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="L29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="M29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="N29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="O29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="P29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="Q29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="R29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="S29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="T29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="U29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="V29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="W29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="X29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="Y29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="Z29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AA29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AB29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AC29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AD29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AE29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AF29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AG29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AH29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AI29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AJ29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AK29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AL29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AM29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AN29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AO29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AP29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AQ29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AR29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AS29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AT29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AU29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AV29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AW29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AX29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AY29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AZ29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BA29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BB29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BC29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BD29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BE29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BF29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BG29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BH29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BI29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BJ29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BK29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BL29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BM29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BN29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BO29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BP29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BQ29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BR29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BS29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BT29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BU29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BV29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BW29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BX29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BY29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BZ29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CA29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CB29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CC29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CD29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CE29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CF29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CG29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CH29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CI29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CJ29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CK29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CL29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CM29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CN29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CO29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CP29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CQ29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CR29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CS29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CT29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CU29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CV29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CW29">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="C33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="D33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="E33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="F33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="G33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="H33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="I33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="J33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="K33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="L33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="M33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="N33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="O33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="P33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="Q33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="R33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="S33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="T33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="U33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="V33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="W33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="X33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="Y33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="Z33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AA33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AB33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AC33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AD33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AE33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AF33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AG33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AH33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AI33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AJ33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AK33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AL33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AM33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AN33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AO33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AP33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AQ33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AR33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AS33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AT33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AU33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AV33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AW33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AX33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AY33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AZ33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BA33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BB33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BC33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BD33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BE33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BF33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BG33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BH33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BI33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BJ33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BK33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BL33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BM33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BN33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BO33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BP33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BQ33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BR33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BS33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BT33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BU33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BV33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BW33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BX33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BY33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BZ33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CA33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CB33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CC33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CD33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CE33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CF33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CG33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CH33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CI33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CJ33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CK33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CL33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CM33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CN33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CO33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CP33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CQ33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CR33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CS33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CT33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CU33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CV33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CW33">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="C37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="D37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="E37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="F37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="G37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="H37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="I37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="J37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="K37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="L37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="M37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="N37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="O37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="P37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="Q37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="R37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="S37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="T37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="U37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="V37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="W37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="X37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="Y37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="Z37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AA37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AB37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AC37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AD37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AE37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AF37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AG37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AH37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AI37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AJ37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AK37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AL37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AM37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AN37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AO37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AP37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AQ37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AR37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AS37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AT37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AU37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AV37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AW37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AX37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AY37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AZ37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BA37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BB37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BC37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BD37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BE37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BF37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BG37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BH37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BI37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BJ37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BK37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BL37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BM37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BN37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BO37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BP37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BQ37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BR37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BS37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BT37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BU37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BV37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BW37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BX37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BY37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BZ37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CA37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CB37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CC37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CD37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CE37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CF37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CG37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CH37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CI37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CJ37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CK37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CL37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CM37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CN37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CO37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CP37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CQ37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CR37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CS37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CT37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CU37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CV37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CW37">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="C41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="D41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="E41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="F41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="G41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="H41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="I41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="J41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="K41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="L41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="M41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="N41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="O41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="P41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="Q41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="R41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="S41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="T41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="U41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="V41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="W41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="X41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="Y41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="Z41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AA41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AB41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AC41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AD41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AE41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AF41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AG41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AH41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AI41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AJ41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AK41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AL41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AM41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AN41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AO41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AP41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AQ41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AR41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AS41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AT41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AU41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AV41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AW41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AX41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AY41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AZ41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BA41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BB41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BC41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BD41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BE41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BF41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BG41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BH41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BI41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BJ41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BK41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BL41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BM41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BN41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BO41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BP41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BQ41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BR41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BS41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BT41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BU41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BV41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BW41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BX41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BY41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BZ41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CA41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CB41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CC41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CD41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CE41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CF41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CG41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CH41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CI41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CJ41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CK41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CL41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CM41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CN41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CO41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CP41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CQ41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CR41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CS41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CT41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CU41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CV41">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CW41">
-        <v>14.12213740458015</v>
-      </c>
-    </row>
-    <row r="45" spans="2:101">
-      <c r="B45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="C45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="D45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="E45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="F45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="G45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="H45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="I45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="J45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="K45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="L45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="M45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="N45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="O45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="P45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="Q45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="R45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="S45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="T45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="U45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="V45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="W45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="X45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="Y45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="Z45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AA45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AB45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AC45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AD45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AE45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AF45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AG45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AH45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AI45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AJ45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AK45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AL45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AM45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AN45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AO45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AP45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AQ45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AR45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AS45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AT45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AU45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AV45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AW45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AX45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AY45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AZ45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BA45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BB45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BC45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BD45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BE45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BF45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BG45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BH45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BI45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BJ45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BK45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BL45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BM45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BN45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BO45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BP45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BQ45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BR45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BS45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BT45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BU45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BV45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BW45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BX45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BY45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BZ45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CA45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CB45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CC45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CD45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CE45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CF45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CG45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CH45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CI45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CJ45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CK45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CL45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CM45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CN45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CO45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CP45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CQ45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CR45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CS45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CT45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CU45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CV45">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CW45">
-        <v>18.70229007633588</v>
+        <v>28.16901408450704</v>
       </c>
     </row>
   </sheetData>
